--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -42979,6 +42979,41 @@
         <v>409900</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>818300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43014,6 +43014,41 @@
         <v>818300</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>3.93</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>585000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43049,6 +43049,41 @@
         <v>585000</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>531800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43084,6 +43084,41 @@
         <v>531800</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2151900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43119,6 +43119,41 @@
         <v>2151900</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>803500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43154,6 +43154,41 @@
         <v>803500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>650700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43189,6 +43189,41 @@
         <v>650700</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>401300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43224,6 +43224,41 @@
         <v>401300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>700000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43259,6 +43259,41 @@
         <v>700000</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>550500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43294,6 +43294,41 @@
         <v>550500</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1207600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43329,6 +43329,41 @@
         <v>1207600</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>4.22</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>1135900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43364,6 +43364,41 @@
         <v>1135900</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>4.18</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>1594900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43399,6 +43399,76 @@
         <v>1594900</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>4.02</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>4</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>3028100</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>2090200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43469,6 +43469,76 @@
         <v>2090200</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>854800</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>490900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43539,6 +43539,41 @@
         <v>490900</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>273300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43574,6 +43574,41 @@
         <v>273300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>197800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43609,6 +43609,41 @@
         <v>197800</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>365000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43644,6 +43644,41 @@
         <v>365000</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1996700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43679,6 +43679,76 @@
         <v>1996700</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>919300</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>1109200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43749,6 +43749,41 @@
         <v>1109200</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>764000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43784,6 +43784,41 @@
         <v>764000</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>1292600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2577"/>
+  <dimension ref="A1:I2578"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90579,6 +90579,41 @@
         <v>1292600</v>
       </c>
     </row>
+    <row r="2578">
+      <c r="A2578" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2578" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2578" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2578" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2578" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="F2578" t="n">
+        <v>3.12</v>
+      </c>
+      <c r="G2578" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="H2578" t="n">
+        <v>2.66</v>
+      </c>
+      <c r="I2578" t="n">
+        <v>1102300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2578"/>
+  <dimension ref="A1:I2579"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90614,6 +90614,41 @@
         <v>1102300</v>
       </c>
     </row>
+    <row r="2579">
+      <c r="A2579" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2579" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2579" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2579" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2579" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2579" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="G2579" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="H2579" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="I2579" t="n">
+        <v>1358600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2579"/>
+  <dimension ref="A1:I2580"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90649,6 +90649,41 @@
         <v>1358600</v>
       </c>
     </row>
+    <row r="2580">
+      <c r="A2580" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2580" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2580" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2580" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2580" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="F2580" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="G2580" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="H2580" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="I2580" t="n">
+        <v>648500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2580"/>
+  <dimension ref="A1:I2581"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90684,6 +90684,41 @@
         <v>648500</v>
       </c>
     </row>
+    <row r="2581">
+      <c r="A2581" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2581" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2581" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2581" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2581" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="F2581" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="G2581" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="H2581" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="I2581" t="n">
+        <v>1104800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2581"/>
+  <dimension ref="A1:I2582"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90719,6 +90719,41 @@
         <v>1104800</v>
       </c>
     </row>
+    <row r="2582">
+      <c r="A2582" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2582" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2582" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2582" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2582" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="F2582" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="G2582" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2582" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="I2582" t="n">
+        <v>538200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2582"/>
+  <dimension ref="A1:I2583"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90754,6 +90754,41 @@
         <v>538200</v>
       </c>
     </row>
+    <row r="2583">
+      <c r="A2583" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2583" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2583" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2583" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2583" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="F2583" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="G2583" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="H2583" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="I2583" t="n">
+        <v>662100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2583"/>
+  <dimension ref="A1:I2584"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90789,6 +90789,41 @@
         <v>662100</v>
       </c>
     </row>
+    <row r="2584">
+      <c r="A2584" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2584" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2584" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2584" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2584" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="F2584" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="G2584" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="H2584" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="I2584" t="n">
+        <v>296000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2584"/>
+  <dimension ref="A1:I2585"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90824,6 +90824,41 @@
         <v>296000</v>
       </c>
     </row>
+    <row r="2585">
+      <c r="A2585" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2585" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2585" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2585" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2585" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="F2585" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="G2585" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="H2585" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="I2585" t="n">
+        <v>1246900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2585"/>
+  <dimension ref="A1:I2586"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90859,6 +90859,41 @@
         <v>1246900</v>
       </c>
     </row>
+    <row r="2586">
+      <c r="A2586" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2586" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2586" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2586" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2586" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="F2586" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="G2586" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H2586" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="I2586" t="n">
+        <v>905700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2586"/>
+  <dimension ref="A1:I2587"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90894,6 +90894,41 @@
         <v>905700</v>
       </c>
     </row>
+    <row r="2587">
+      <c r="A2587" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2587" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2587" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2587" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2587" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="F2587" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="G2587" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H2587" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="I2587" t="n">
+        <v>930700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2587"/>
+  <dimension ref="A1:I2588"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90929,6 +90929,41 @@
         <v>930700</v>
       </c>
     </row>
+    <row r="2588">
+      <c r="A2588" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2588" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2588" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2588" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2588" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="F2588" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="G2588" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="H2588" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="I2588" t="n">
+        <v>585600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2588"/>
+  <dimension ref="A1:I2589"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90964,6 +90964,41 @@
         <v>585600</v>
       </c>
     </row>
+    <row r="2589">
+      <c r="A2589" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2589" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2589" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2589" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2589" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="F2589" t="n">
+        <v>3</v>
+      </c>
+      <c r="G2589" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="H2589" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="I2589" t="n">
+        <v>1188500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2589"/>
+  <dimension ref="A1:I2590"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -90999,6 +90999,41 @@
         <v>1188500</v>
       </c>
     </row>
+    <row r="2590">
+      <c r="A2590" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2590" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2590" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2590" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2590" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="F2590" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="G2590" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H2590" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="I2590" t="n">
+        <v>565500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2590"/>
+  <dimension ref="A1:I2591"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91034,6 +91034,41 @@
         <v>565500</v>
       </c>
     </row>
+    <row r="2591">
+      <c r="A2591" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2591" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2591" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2591" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2591" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="F2591" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="G2591" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="H2591" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I2591" t="n">
+        <v>233000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/7034.xlsx
+++ b/data/7034.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2591"/>
+  <dimension ref="A1:I2592"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -91069,6 +91069,41 @@
         <v>233000</v>
       </c>
     </row>
+    <row r="2592">
+      <c r="A2592" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2592" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2592" t="inlineStr">
+        <is>
+          <t>7034</t>
+        </is>
+      </c>
+      <c r="D2592" t="inlineStr">
+        <is>
+          <t>TGUAN</t>
+        </is>
+      </c>
+      <c r="E2592" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="F2592" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="G2592" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="H2592" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="I2592" t="n">
+        <v>97900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
